--- a/TaiLieuThamKhao/Book1.xlsx
+++ b/TaiLieuThamKhao/Book1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Gặp khách hàng</t>
   </si>
@@ -120,13 +121,103 @@
   </si>
   <si>
     <t xml:space="preserve">Tổng thời gian </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Khảo sát</t>
+  </si>
+  <si>
+    <t>Phân tích yêu cầu khách hàng</t>
+  </si>
+  <si>
+    <t>Tìm hiểu nhu cầu về giao diện tính năng phù hợp của phần mềm</t>
+  </si>
+  <si>
+    <t>Ước lượng thời gian thực hiện</t>
+  </si>
+  <si>
+    <t>Ước lượng kinh phí</t>
+  </si>
+  <si>
+    <t>Phân tích</t>
+  </si>
+  <si>
+    <t>Đặc tả dữ liệu</t>
+  </si>
+  <si>
+    <t>Đặc tả xử lý</t>
+  </si>
+  <si>
+    <t>Đặc tả chức năng</t>
+  </si>
+  <si>
+    <t>Xây dựng ER, Use case</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t>Xây dựng CSDL hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>Truy vấn hàm, thủ tục và ràng buộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế các chức năng của chương trình </t>
+  </si>
+  <si>
+    <t>Kiểm soát lỗi</t>
+  </si>
+  <si>
+    <t>Lập trình</t>
+  </si>
+  <si>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>Lựa chọn công cụ kiểm thử</t>
+  </si>
+  <si>
+    <t>Kiểm chứng các modules chức năng</t>
+  </si>
+  <si>
+    <t>Khắc phục lỗi và viết test case</t>
+  </si>
+  <si>
+    <t>Triển khai và bảo trì</t>
+  </si>
+  <si>
+    <t>Lắp đặt phần cứng</t>
+  </si>
+  <si>
+    <t>Cài đặt phần mềm</t>
+  </si>
+  <si>
+    <t>Chuyển dữ liệu từ hệ thống cũ sang hệ thống mới</t>
+  </si>
+  <si>
+    <t>Kiểm tra sai sót, khuyết điểm của hệ thống</t>
+  </si>
+  <si>
+    <t>Khắc phục lỗi sau khi kiểm tra</t>
+  </si>
+  <si>
+    <t>Đào tạo, cải tiến, bảo hành, nâng cấp hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +238,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -216,11 +315,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -239,6 +362,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,7 +687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="51" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -592,7 +746,7 @@
         <v>1.5</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F48" si="0">(C4+4*D4+E4)/6</f>
+        <f t="shared" ref="F4:F47" si="0">(C4+4*D4+E4)/6</f>
         <v>1</v>
       </c>
       <c r="G4" s="4">
@@ -817,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:G18" si="3">SUM(D13:D17)</f>
+        <f t="shared" ref="D18:F18" si="3">SUM(D13:D17)</f>
         <v>9.5</v>
       </c>
       <c r="E18" s="4">
@@ -1306,4 +1460,756 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="79.59765625" customWidth="1"/>
+    <col min="4" max="5" width="4.796875" customWidth="1"/>
+    <col min="6" max="6" width="4.296875" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13">
+        <f>(D4+4*E4+F4)/6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:G38" si="0">(D5+4*E5+F5)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>25</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>30</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TaiLieuThamKhao/Book1.xlsx
+++ b/TaiLieuThamKhao/Book1.xlsx
@@ -369,15 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +384,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,23 +1464,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G38"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="79.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="5" width="4.796875" customWidth="1"/>
     <col min="6" max="6" width="4.296875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1500,17 +1500,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1526,12 +1526,12 @@
       <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <f>(D4+4*E4+F4)/6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1547,12 +1547,12 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G38" si="0">(D5+4*E5+F5)/6</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1568,12 +1568,12 @@
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1589,25 +1589,29 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="H7">
+        <f>SUM(G4:G7)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1623,12 +1627,12 @@
       <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1644,12 +1648,12 @@
       <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1665,12 +1669,12 @@
       <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1686,12 +1690,12 @@
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1707,25 +1711,29 @@
       <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="H13">
+        <f>SUM(G9:G13)</f>
+        <v>13.666666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>10</v>
       </c>
@@ -1741,12 +1749,12 @@
       <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>11</v>
       </c>
@@ -1762,12 +1770,12 @@
       <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>12</v>
       </c>
@@ -1783,12 +1791,12 @@
       <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>13</v>
       </c>
@@ -1804,25 +1812,29 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="H18">
+        <f>SUM(G15:G18)</f>
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="13">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>14</v>
       </c>
@@ -1838,12 +1850,12 @@
       <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1851,20 +1863,20 @@
         <v>13</v>
       </c>
       <c r="D21" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="4">
-        <v>9</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>16</v>
       </c>
@@ -1880,12 +1892,12 @@
       <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>17</v>
       </c>
@@ -1901,12 +1913,12 @@
       <c r="F23" s="4">
         <v>7</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>18</v>
       </c>
@@ -1922,25 +1934,29 @@
       <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G24" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f>SUM(G20:G24)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>19</v>
       </c>
@@ -1956,12 +1972,12 @@
       <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>20</v>
       </c>
@@ -1977,12 +1993,12 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>21</v>
       </c>
@@ -1998,12 +2014,12 @@
       <c r="F28" s="4">
         <v>3</v>
       </c>
-      <c r="G28" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>22</v>
       </c>
@@ -2019,12 +2035,12 @@
       <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>23</v>
       </c>
@@ -2040,12 +2056,12 @@
       <c r="F30" s="4">
         <v>3</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>24</v>
       </c>
@@ -2061,25 +2077,29 @@
       <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="G31" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="G31" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f>SUM(G26:G31)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="13">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>25</v>
       </c>
@@ -2095,12 +2115,12 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>26</v>
       </c>
@@ -2116,12 +2136,12 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>27</v>
       </c>
@@ -2137,12 +2157,12 @@
       <c r="F35" s="4">
         <v>3</v>
       </c>
-      <c r="G35" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>28</v>
       </c>
@@ -2158,12 +2178,12 @@
       <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>29</v>
       </c>
@@ -2179,12 +2199,12 @@
       <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>30</v>
       </c>
@@ -2200,9 +2220,19 @@
       <c r="F38" s="4">
         <v>2</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
+      </c>
+      <c r="H38">
+        <f>SUM(G33:G38)</f>
+        <v>6.2500000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="9">
+        <f>SUM(G4:G38)</f>
+        <v>66.083333333333343</v>
       </c>
     </row>
   </sheetData>

--- a/TaiLieuThamKhao/Book1.xlsx
+++ b/TaiLieuThamKhao/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>Gặp khách hàng</t>
   </si>
@@ -211,13 +211,43 @@
   </si>
   <si>
     <t>Đào tạo, cải tiến, bảo hành, nâng cấp hệ thống</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,16 +276,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -339,11 +395,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,6 +464,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1477,10 +1555,12 @@
     <col min="4" max="5" width="4.796875" customWidth="1"/>
     <col min="6" max="6" width="4.296875" customWidth="1"/>
     <col min="7" max="7" width="23.19921875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1499,8 +1579,14 @@
       <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
@@ -1509,8 +1595,20 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="18">
+        <v>44487.333333333336</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="18">
+        <v>44488.708333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1530,8 +1628,20 @@
         <f>(D4+4*E4+F4)/6</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="18">
+        <v>44489.333333333336</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="18">
+        <v>44489.708333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1551,8 +1661,20 @@
         <f t="shared" ref="G5:G38" si="0">(D5+4*E5+F5)/6</f>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="18">
+        <v>44489.333333333336</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="18">
+        <v>44490.708333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1572,8 +1694,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="18">
+        <v>44491.333333333336</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="18">
+        <v>44491.708333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1597,8 +1731,20 @@
         <f>SUM(G4:G7)</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="18">
+        <v>44489.333333333336</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="18">
+        <v>44490.708333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
@@ -1610,8 +1756,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="18">
+        <v>44491.333333333336</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="18">
+        <v>44492.708333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1631,8 +1789,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="18">
+        <v>44494.333333333336</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="18">
+        <v>44495.708333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1652,8 +1822,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="18">
+        <v>44496.333333333336</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="18">
+        <v>44498.708333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -1673,8 +1855,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="18">
+        <v>44499.333333333336</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="18">
+        <v>44504.708333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1694,8 +1888,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="18">
+        <v>44505.333333333336</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="18">
+        <v>44506.708333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1719,8 +1925,20 @@
         <f>SUM(G9:G13)</f>
         <v>13.666666666666668</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="18">
+        <v>44508.333333333336</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="18">
+        <v>44509.708333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1732,8 +1950,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="18">
+        <v>44510.333333333336</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="18">
+        <v>44512.708333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>10</v>
       </c>
@@ -1753,8 +1983,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="18">
+        <v>44513.333333333336</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="18">
+        <v>44513.708333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>11</v>
       </c>
@@ -1774,8 +2016,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="18">
+        <v>44499.333333333336</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="18">
+        <v>44502.708333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>12</v>
       </c>
@@ -1795,8 +2049,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="18">
+        <v>44503.333333333336</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="18">
+        <v>44509.708333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>13</v>
       </c>
@@ -1820,8 +2086,20 @@
         <f>SUM(G15:G18)</f>
         <v>8.1666666666666661</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="18">
+        <v>44510.333333333336</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="18">
+        <v>44512.708333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1833,8 +2111,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="18">
+        <v>44513.333333333336</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="18">
+        <v>44519.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>14</v>
       </c>
@@ -1854,8 +2144,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="18">
+        <v>44520.333333333336</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="18">
+        <v>44523.708333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1875,8 +2177,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="18">
+        <v>44513.333333333336</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="18">
+        <v>44513.708333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>16</v>
       </c>
@@ -1896,8 +2210,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="18">
+        <v>44524.333333333336</v>
+      </c>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="18">
+        <v>44525.708333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>17</v>
       </c>
@@ -1917,8 +2243,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="18">
+        <v>44526.333333333336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="18">
+        <v>44526.708333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>18</v>
       </c>
@@ -1942,8 +2280,20 @@
         <f>SUM(G20:G24)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="18">
+        <v>44527.333333333336</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="18">
+        <v>44527.708333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>51</v>
       </c>
@@ -1955,8 +2305,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="18">
+        <v>44529.333333333336</v>
+      </c>
+      <c r="M25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="18">
+        <v>44531.708333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>19</v>
       </c>
@@ -1976,8 +2338,20 @@
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="18">
+        <v>44532.333333333336</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="18">
+        <v>44532.708333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>20</v>
       </c>
@@ -1997,8 +2371,20 @@
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="18">
+        <v>44533.333333333336</v>
+      </c>
+      <c r="M27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="18">
+        <v>44533.708333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>21</v>
       </c>
@@ -2018,8 +2404,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="18">
+        <v>44534.333333333336</v>
+      </c>
+      <c r="M28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="18">
+        <v>44534.708333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>22</v>
       </c>
@@ -2039,8 +2437,20 @@
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="18">
+        <v>44536.333333333336</v>
+      </c>
+      <c r="M29" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="18">
+        <v>44537.708333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>23</v>
       </c>
@@ -2060,8 +2470,20 @@
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="18">
+        <v>44536</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="18">
+        <v>44536.708333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>24</v>
       </c>
@@ -2086,7 +2508,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>55</v>
       </c>

--- a/TaiLieuThamKhao/Book1.xlsx
+++ b/TaiLieuThamKhao/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -456,6 +456,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,13 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -1544,19 +1544,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.796875" customWidth="1"/>
     <col min="6" max="6" width="4.296875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1579,32 +1582,32 @@
       <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="15">
         <v>44487.333333333336</v>
       </c>
       <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="15">
         <v>44488.708333333336</v>
       </c>
     </row>
@@ -1631,13 +1634,13 @@
       <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <v>44489.333333333336</v>
       </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <v>44489.708333333336</v>
       </c>
     </row>
@@ -1664,13 +1667,13 @@
       <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <v>44489.333333333336</v>
       </c>
       <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="15">
         <v>44490.708333333336</v>
       </c>
     </row>
@@ -1697,13 +1700,13 @@
       <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <v>44491.333333333336</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="15">
         <v>44491.708333333336</v>
       </c>
     </row>
@@ -1734,17 +1737,17 @@
       <c r="J7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <v>44489.333333333336</v>
       </c>
       <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="15">
         <v>44490.708333333336</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
@@ -1759,13 +1762,13 @@
       <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="15">
         <v>44491.333333333336</v>
       </c>
       <c r="M8" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="15">
         <v>44492.708333333336</v>
       </c>
     </row>
@@ -1792,13 +1795,13 @@
       <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>44494.333333333336</v>
       </c>
       <c r="M9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="15">
         <v>44495.708333333336</v>
       </c>
     </row>
@@ -1825,13 +1828,13 @@
       <c r="J10" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <v>44496.333333333336</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <v>44498.708333333336</v>
       </c>
     </row>
@@ -1858,13 +1861,13 @@
       <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>44499.333333333336</v>
       </c>
       <c r="M11" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="15">
         <v>44504.708333333336</v>
       </c>
     </row>
@@ -1891,13 +1894,13 @@
       <c r="J12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>44505.333333333336</v>
       </c>
       <c r="M12" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <v>44506.708333333336</v>
       </c>
     </row>
@@ -1928,17 +1931,17 @@
       <c r="J13" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>44508.333333333336</v>
       </c>
       <c r="M13" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <v>44509.708333333336</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1953,13 +1956,13 @@
       <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>44510.333333333336</v>
       </c>
       <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="15">
         <v>44512.708333333336</v>
       </c>
     </row>
@@ -1986,13 +1989,13 @@
       <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>44513.333333333336</v>
       </c>
       <c r="M15" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="15">
         <v>44513.708333333336</v>
       </c>
     </row>
@@ -2019,13 +2022,13 @@
       <c r="J16" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>44499.333333333336</v>
       </c>
       <c r="M16" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <v>44502.708333333336</v>
       </c>
     </row>
@@ -2052,13 +2055,13 @@
       <c r="J17" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>44503.333333333336</v>
       </c>
       <c r="M17" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="15">
         <v>44509.708333333336</v>
       </c>
     </row>
@@ -2089,17 +2092,17 @@
       <c r="J18" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>44510.333333333336</v>
       </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="15">
         <v>44512.708333333336</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>50</v>
       </c>
@@ -2114,13 +2117,13 @@
       <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>44513.333333333336</v>
       </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="15">
         <v>44519.708333333336</v>
       </c>
     </row>
@@ -2147,13 +2150,13 @@
       <c r="J20" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="15">
         <v>44520.333333333336</v>
       </c>
       <c r="M20" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="15">
         <v>44523.708333333336</v>
       </c>
     </row>
@@ -2180,13 +2183,13 @@
       <c r="J21" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="15">
         <v>44513.333333333336</v>
       </c>
       <c r="M21" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="15">
         <v>44513.708333333336</v>
       </c>
     </row>
@@ -2213,13 +2216,13 @@
       <c r="J22" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="15">
         <v>44524.333333333336</v>
       </c>
       <c r="M22" t="s">
         <v>67</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="15">
         <v>44525.708333333336</v>
       </c>
     </row>
@@ -2246,13 +2249,13 @@
       <c r="J23" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="15">
         <v>44526.333333333336</v>
       </c>
       <c r="M23" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="15">
         <v>44526.708333333336</v>
       </c>
     </row>
@@ -2283,17 +2286,17 @@
       <c r="J24" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="15">
         <v>44527.333333333336</v>
       </c>
       <c r="M24" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="15">
         <v>44527.708333333336</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>51</v>
       </c>
@@ -2308,13 +2311,13 @@
       <c r="J25" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="15">
         <v>44529.333333333336</v>
       </c>
       <c r="M25" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="15">
         <v>44531.708333333336</v>
       </c>
     </row>
@@ -2341,13 +2344,13 @@
       <c r="J26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="15">
         <v>44532.333333333336</v>
       </c>
       <c r="M26" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="15">
         <v>44532.708333333336</v>
       </c>
     </row>
@@ -2374,13 +2377,13 @@
       <c r="J27" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="15">
         <v>44533.333333333336</v>
       </c>
       <c r="M27" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="15">
         <v>44533.708333333336</v>
       </c>
     </row>
@@ -2407,13 +2410,13 @@
       <c r="J28" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="15">
         <v>44534.333333333336</v>
       </c>
       <c r="M28" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="15">
         <v>44534.708333333336</v>
       </c>
     </row>
@@ -2440,13 +2443,13 @@
       <c r="J29" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="15">
         <v>44536.333333333336</v>
       </c>
       <c r="M29" t="s">
         <v>68</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="15">
         <v>44537.708333333336</v>
       </c>
     </row>
@@ -2473,13 +2476,13 @@
       <c r="J30" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="15">
         <v>44536</v>
       </c>
       <c r="M30" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="15">
         <v>44536.708333333336</v>
       </c>
     </row>
@@ -2508,7 +2511,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>55</v>
       </c>

--- a/TaiLieuThamKhao/Book1.xlsx
+++ b/TaiLieuThamKhao/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
   <si>
     <t>Gặp khách hàng</t>
   </si>
@@ -238,13 +238,98 @@
   </si>
   <si>
     <t>Finish</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Phân công</t>
+  </si>
+  <si>
+    <t>Ước lượng chi phí (đồng)</t>
+  </si>
+  <si>
+    <t>Giai đoạn 1: Khảo sát</t>
+  </si>
+  <si>
+    <t>2 ngày</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>1 ngày</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Giai đoạn 2: Phân tích</t>
+  </si>
+  <si>
+    <t>Xây dựng ER - Use case</t>
+  </si>
+  <si>
+    <t>3 ngày</t>
+  </si>
+  <si>
+    <t>5 ngày</t>
+  </si>
+  <si>
+    <t>TL,DEV</t>
+  </si>
+  <si>
+    <t>Giai đoạn 3: Thiết kế</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Truy vấn hàm - thủ tục và ràng buộc</t>
+  </si>
+  <si>
+    <t>Thiết kế các chức năng của chương trình</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Giai đoạn 4: Thực hiện</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>Thiết kế các giao diện</t>
+  </si>
+  <si>
+    <t>6 ngày</t>
+  </si>
+  <si>
+    <t>Giai đoạn 5: Kiểm thử</t>
+  </si>
+  <si>
+    <t>Giai đoạn 6: Triển khai và bảo trì</t>
+  </si>
+  <si>
+    <t>1/4 ngày</t>
+  </si>
+  <si>
+    <t>Kiểm tra sai sót - khuyết điểm của hệ thống</t>
+  </si>
+  <si>
+    <t>Đào tạo - cải tiến - bảo hành - nâng cấp hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -311,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -410,21 +495,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,6 +563,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,786 +876,1367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I48"/>
+  <dimension ref="B2:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="18"/>
+    <col min="2" max="2" width="29.796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.796875" style="18"/>
+    <col min="14" max="14" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="18"/>
+    <col min="16" max="16" width="16" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="18"/>
+    <col min="18" max="18" width="14.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:9" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="18">
         <f>SUM(G5,G10,G18,G24,G29,G35,G43,G48)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3</v>
+      </c>
+      <c r="F3" s="21">
         <f>(C3+4*D3+E3)/6</f>
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
         <v>0.5</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
         <v>1.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:F47" si="0">(C4+4*D4+E4)/6</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="21">
         <f>SUM(C3:C4)</f>
         <v>1.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="21">
         <f t="shared" ref="D5:G5" si="1">SUM(D3:D4)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="21">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
+    <row r="6" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="21">
         <f>SUM(C8:C9)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="21">
         <f t="shared" ref="D10:G10" si="2">SUM(D8:D9)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="21">
         <f t="shared" si="2"/>
         <v>2.166666666666667</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="11" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
         <v>2.5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="21">
         <f t="shared" si="0"/>
         <v>1.9166666666666667</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="G14" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
         <v>1.5</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="G15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21">
         <v>2.5</v>
       </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="21">
+        <v>3</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="G16" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
         <v>1.5</v>
       </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="G17" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="21">
         <f>SUM(C13:C17)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="21">
         <f t="shared" ref="D18:F18" si="3">SUM(D13:D17)</f>
         <v>9.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="21">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="21">
         <f t="shared" si="3"/>
         <v>9.4166666666666679</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="19" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="21">
         <v>4</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="21">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="21">
         <v>6</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="21">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21">
         <v>2.5</v>
       </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="21">
+        <v>3</v>
+      </c>
+      <c r="F23" s="21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="G23" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="21">
         <f>SUM(C21:C23)</f>
         <v>8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="21">
         <f t="shared" ref="D24:G24" si="4">SUM(D21:D23)</f>
         <v>10.5</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="21">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="21">
         <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="21">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="25" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="21">
+        <v>2</v>
+      </c>
+      <c r="D27" s="21">
+        <v>3</v>
+      </c>
+      <c r="E27" s="21">
         <v>4</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="21">
         <v>4</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="21">
         <v>5</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="21">
         <v>6</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="21">
         <f>SUM(C27:C28)</f>
         <v>6</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="21">
         <f t="shared" ref="D29:G29" si="5">SUM(D27:D28)</f>
         <v>8</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="21">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="21">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="30" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="21">
         <v>5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="21">
         <v>6</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="21">
         <v>7</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="21">
         <v>12</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="21">
         <v>14</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="21">
         <v>15</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="21">
         <f t="shared" si="0"/>
         <v>13.833333333333334</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="4">
-        <v>3</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34" s="21">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21">
         <v>4</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="21">
         <v>5</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="21">
         <f>SUM(C32:C34)</f>
         <v>20</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="21">
         <f t="shared" ref="D35:G35" si="6">SUM(D32:D34)</f>
         <v>24</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="21">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="21">
         <f t="shared" si="6"/>
         <v>23.833333333333336</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="21">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="36" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="21">
+        <v>3</v>
+      </c>
+      <c r="D38" s="21">
         <v>4</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="21">
         <v>5</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39" s="21">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21">
         <v>4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="21">
         <v>5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="4">
-        <v>3</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="21">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21">
         <v>4</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="21">
         <v>5</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="21">
         <v>5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="21">
         <v>6</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="21">
         <v>7</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="C42" s="21">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21">
         <v>1.5</v>
       </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="E42" s="21">
+        <v>2</v>
+      </c>
+      <c r="F42" s="21">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
+      <c r="G42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="21">
         <f>SUM(C38:C42)</f>
         <v>15</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="21">
         <f t="shared" ref="D43:G43" si="7">SUM(D38:D42)</f>
         <v>19.5</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="21">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="21">
         <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="21">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="44" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="21">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="21">
         <v>7</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="21">
         <v>8</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="21">
         <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="C47" s="21">
+        <v>2</v>
+      </c>
+      <c r="D47" s="21">
+        <v>3</v>
+      </c>
+      <c r="E47" s="21">
         <v>4</v>
       </c>
-      <c r="F47" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G47" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
+      <c r="F47" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G47" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="21">
         <f>SUM(C46:C47)</f>
         <v>7</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="21">
         <f t="shared" ref="D48:G48" si="8">SUM(D46:D47)</f>
         <v>10</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="21">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="21">
         <f t="shared" si="8"/>
         <v>9.8333333333333321</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="21">
         <f t="shared" si="8"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="10:16" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J51" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+    </row>
+    <row r="53" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J53" s="24">
+        <v>1</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N53" s="27">
+        <v>800000</v>
+      </c>
+      <c r="P53" s="26"/>
+    </row>
+    <row r="54" spans="10:16" ht="134.4" x14ac:dyDescent="0.25">
+      <c r="J54" s="24">
+        <v>2</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N54" s="27">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="55" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J55" s="24">
+        <v>3</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N55" s="27">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="56" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J56" s="24">
+        <v>4</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N56" s="27">
+        <v>350000</v>
+      </c>
+      <c r="P56" s="26">
+        <f>SUM(N53:N56)</f>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="57" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="28"/>
+    </row>
+    <row r="58" spans="10:16" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="J58" s="24">
+        <v>5</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" s="27">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="59" spans="10:16" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="J59" s="24">
+        <v>6</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" s="27">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="60" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J60" s="24">
+        <v>7</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N60" s="27">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="61" spans="10:16" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J61" s="24">
+        <v>8</v>
+      </c>
+      <c r="K61" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" s="27">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="62" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J62" s="24">
+        <v>9</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M62" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" s="27">
+        <v>3000000</v>
+      </c>
+      <c r="P62" s="30">
+        <f>SUM(N58:N62)</f>
+        <v>6150000</v>
+      </c>
+    </row>
+    <row r="63" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="28"/>
+    </row>
+    <row r="64" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J64" s="24">
+        <v>10</v>
+      </c>
+      <c r="K64" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N64" s="27">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J65" s="24">
+        <v>11</v>
+      </c>
+      <c r="K65" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N65" s="27">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J66" s="24">
+        <v>12</v>
+      </c>
+      <c r="K66" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" s="27">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="J67" s="24">
+        <v>13</v>
+      </c>
+      <c r="K67" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M67" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" s="27">
+        <v>250000</v>
+      </c>
+      <c r="P67" s="30">
+        <f>SUM(N64:N67)</f>
+        <v>2350000</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="28"/>
+    </row>
+    <row r="69" spans="10:16" ht="84" x14ac:dyDescent="0.25">
+      <c r="J69" s="24">
+        <v>14</v>
+      </c>
+      <c r="K69" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M69" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N69" s="27">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J70" s="24">
+        <v>15</v>
+      </c>
+      <c r="K70" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M70" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N70" s="27">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="J71" s="24">
+        <v>16</v>
+      </c>
+      <c r="K71" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M71" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="27">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J72" s="24">
+        <v>17</v>
+      </c>
+      <c r="K72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M72" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N72" s="27">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="73" spans="10:16" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="J73" s="24">
+        <v>18</v>
+      </c>
+      <c r="K73" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M73" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N73" s="27">
+        <v>900000</v>
+      </c>
+      <c r="P73" s="30">
+        <f>SUM(N69:N73)</f>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="28"/>
+    </row>
+    <row r="75" spans="10:16" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J75" s="24">
+        <v>19</v>
+      </c>
+      <c r="K75" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N75" s="27">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J76" s="24">
+        <v>20</v>
+      </c>
+      <c r="K76" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N76" s="27">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="24">
+        <v>21</v>
+      </c>
+      <c r="K77" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N77" s="27">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="78" spans="10:16" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="J78" s="24">
+        <v>22</v>
+      </c>
+      <c r="K78" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M78" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N78" s="27">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J79" s="24">
+        <v>23</v>
+      </c>
+      <c r="K79" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M79" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N79" s="27">
+        <v>900000</v>
+      </c>
+      <c r="P79" s="30">
+        <f>SUM(N75:N79)</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="28"/>
+    </row>
+    <row r="81" spans="10:18" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J81" s="24">
+        <v>24</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L81" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M81" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N81" s="29">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="82" spans="10:18" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="J82" s="24">
+        <v>25</v>
+      </c>
+      <c r="K82" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L82" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M82" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N82" s="29"/>
+    </row>
+    <row r="83" spans="10:18" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="J83" s="24">
+        <v>26</v>
+      </c>
+      <c r="K83" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M83" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N83" s="27">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="84" spans="10:18" ht="67.2" x14ac:dyDescent="0.25">
+      <c r="J84" s="24">
+        <v>27</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N84" s="27">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="85" spans="10:18" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="J85" s="24">
+        <v>28</v>
+      </c>
+      <c r="K85" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L85" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M85" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N85" s="27">
+        <v>300000</v>
+      </c>
+      <c r="P85" s="30">
+        <f>SUM(N81:N85)</f>
+        <v>1300000</v>
+      </c>
+      <c r="R85" s="30">
+        <f>SUM(P85,P79,P73,P67,P62,P56,)</f>
+        <v>20550000</v>
       </c>
     </row>
   </sheetData>
@@ -1554,179 +2259,179 @@
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.796875" customWidth="1"/>
     <col min="6" max="6" width="4.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
       <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="12">
         <v>44487.333333333336</v>
       </c>
       <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="12">
         <v>44488.708333333336</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
         <f>(D4+4*E4+F4)/6</f>
         <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="12">
         <v>44489.333333333336</v>
       </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="12">
         <v>44489.708333333336</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="0">(D5+4*E5+F5)/6</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="12">
         <v>44489.333333333336</v>
       </c>
       <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <v>44490.708333333336</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="12">
         <v>44491.333333333336</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="12">
         <v>44491.708333333336</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
@@ -1737,190 +2442,190 @@
       <c r="J7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>44489.333333333336</v>
       </c>
       <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="12">
         <v>44490.708333333336</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="12">
         <v>44491.333333333336</v>
       </c>
       <c r="M8" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="12">
         <v>44492.708333333336</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="12">
         <v>44494.333333333336</v>
       </c>
       <c r="M9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="12">
         <v>44495.708333333336</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="12">
         <v>44496.333333333336</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="12">
         <v>44498.708333333336</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="12">
         <v>44499.333333333336</v>
       </c>
       <c r="M11" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="12">
         <v>44504.708333333336</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="12">
         <v>44505.333333333336</v>
       </c>
       <c r="M12" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="12">
         <v>44506.708333333336</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
@@ -1931,157 +2636,157 @@
       <c r="J13" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="12">
         <v>44508.333333333336</v>
       </c>
       <c r="M13" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="12">
         <v>44509.708333333336</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="12">
         <v>44510.333333333336</v>
       </c>
       <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="12">
         <v>44512.708333333336</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="12">
         <v>44513.333333333336</v>
       </c>
       <c r="M15" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="12">
         <v>44513.708333333336</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="12">
         <v>44499.333333333336</v>
       </c>
       <c r="M16" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="12">
         <v>44502.708333333336</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="12">
         <v>44503.333333333336</v>
       </c>
       <c r="M17" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="12">
         <v>44509.708333333336</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
@@ -2092,190 +2797,190 @@
       <c r="J18" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="12">
         <v>44510.333333333336</v>
       </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="12">
         <v>44512.708333333336</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="10">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="12">
         <v>44513.333333333336</v>
       </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="12">
         <v>44519.708333333336</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="12">
         <v>44520.333333333336</v>
       </c>
       <c r="M20" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="12">
         <v>44523.708333333336</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>8</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="12">
         <v>44513.333333333336</v>
       </c>
       <c r="M21" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="12">
         <v>44513.708333333336</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="12">
         <v>44524.333333333336</v>
       </c>
       <c r="M22" t="s">
         <v>67</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="12">
         <v>44525.708333333336</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J23" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="12">
         <v>44526.333333333336</v>
       </c>
       <c r="M23" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="12">
         <v>44526.708333333336</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2286,223 +2991,223 @@
       <c r="J24" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="12">
         <v>44527.333333333336</v>
       </c>
       <c r="M24" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="12">
         <v>44527.708333333336</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="10">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="12">
         <v>44529.333333333336</v>
       </c>
       <c r="M25" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="12">
         <v>44531.708333333336</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="12">
         <v>44532.333333333336</v>
       </c>
       <c r="M26" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="12">
         <v>44532.708333333336</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J27" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="12">
         <v>44533.333333333336</v>
       </c>
       <c r="M27" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="12">
         <v>44533.708333333336</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="12">
         <v>44534.333333333336</v>
       </c>
       <c r="M28" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="12">
         <v>44534.708333333336</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J29" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="12">
         <v>44536.333333333336</v>
       </c>
       <c r="M29" t="s">
         <v>68</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="12">
         <v>44537.708333333336</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J30" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="12">
         <v>44536</v>
       </c>
       <c r="M30" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="12">
         <v>44536.708333333336</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2511,141 +3216,141 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="2:14" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="10">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>25</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>0.25</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>0.25</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>26</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>0.25</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>0.25</v>
       </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>27</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>3</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>28</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>29</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>30</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
@@ -2655,7 +3360,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <f>SUM(G4:G38)</f>
         <v>66.083333333333343</v>
       </c>
